--- a/Gęstość zaludnienia.xlsx
+++ b/Gęstość zaludnienia.xlsx
@@ -1,408 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EconometricsProject\Spacial-Econometrics-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A5ADE6-1551-491A-977C-B86D02B203E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabl. 1(18)" sheetId="24" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tabl. 1(18)'!$A$1:$B$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tabl. 1(18)'!$B$1:$C$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <r>
-      <t xml:space="preserve">W O J E W Ó D Z T W O </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gdański </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kartuski </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nowodworski </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pucki </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Wejherowski </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bytowski </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Chojnicki </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Człuchowski </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lęborski </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Słupski </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Słupsk </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kościerski </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kwidzyński </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Malborski </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Starogardzki </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sztumski </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tczewski </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gdańsk </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gdynia </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sopot </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WYSZCZEGÓLNIENIE
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>SPECIFICATION</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>na 1 km</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>per 1 km</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="6"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TABL. 1 (18). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">Gęstość zaludnienia </t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Population Density</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bytowski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chojnicki  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Człuchowski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gdański  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kartuski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kościerski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwidzyński  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lęborski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malborski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nowodworski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pucki  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Słupski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starogardzki  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tczewski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wejherowski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sztumski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gdańsk  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gdynia  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Słupsk  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sopot  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="@\ *."/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -573,13 +272,6 @@
       <charset val="238"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="6"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -607,21 +299,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="6"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
   </fonts>
   <fills count="12">
@@ -682,7 +359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -813,43 +490,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -865,9 +511,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -880,7 +526,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -895,7 +541,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -906,7 +552,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -929,8 +575,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -957,13 +603,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -971,98 +617,87 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
-    <cellStyle name="Akcent 1" xfId="1" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akcent 2" xfId="2" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akcent 3" xfId="3" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akcent 4" xfId="4" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akcent 5" xfId="5" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akcent 6" xfId="6" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="boczek 1 - angielski" xfId="7"/>
-    <cellStyle name="boczek 1 - polski" xfId="8"/>
-    <cellStyle name="boczek 1 - polski 2" xfId="9"/>
-    <cellStyle name="boczek 1 - polski 2 2" xfId="10"/>
-    <cellStyle name="boczek 1 - polski 2 3" xfId="11"/>
-    <cellStyle name="boczek 1 - polski 3" xfId="12"/>
-    <cellStyle name="boczek 1 - polski 4" xfId="13"/>
-    <cellStyle name="boczek 2 - angielski" xfId="14"/>
-    <cellStyle name="boczek 2 - polski" xfId="15"/>
-    <cellStyle name="boczek 2 - polski 2" xfId="16"/>
-    <cellStyle name="boczek 2 - polski 2 2" xfId="17"/>
-    <cellStyle name="boczek 2 - polski 2 3" xfId="18"/>
-    <cellStyle name="boczek 2 - polski 3" xfId="19"/>
-    <cellStyle name="boczek 3 - angielski" xfId="20"/>
-    <cellStyle name="boczek 3 - polski" xfId="21"/>
-    <cellStyle name="boczek 3 - polski 2" xfId="22"/>
-    <cellStyle name="boczek 3 - polski 3" xfId="23"/>
-    <cellStyle name="Dane wejściowe" xfId="24" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Dane wyjściowe" xfId="25" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Główka polska" xfId="26"/>
-    <cellStyle name="Główka polska 2" xfId="27"/>
-    <cellStyle name="Hiperłącze 2" xfId="28"/>
-    <cellStyle name="Komórka połączona" xfId="29" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Komórka zaznaczona" xfId="30" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="liczby w tablicy bez gwiazdki" xfId="31"/>
-    <cellStyle name="liczby w tablicy bez gwiazdki 2" xfId="32"/>
-    <cellStyle name="liczby w tablicy z gwiazdką" xfId="33"/>
-    <cellStyle name="liczby w tablicy z gwiazdką 2" xfId="34"/>
-    <cellStyle name="Nagłówek 1" xfId="35" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 2" xfId="36" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 3" xfId="37" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 4" xfId="38" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 2" xfId="39"/>
-    <cellStyle name="Normalny 3" xfId="40"/>
-    <cellStyle name="Normalny 3 2" xfId="41"/>
-    <cellStyle name="Notka - angielska" xfId="42"/>
-    <cellStyle name="Notka - polska" xfId="43"/>
-    <cellStyle name="Obliczenia" xfId="44" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Stan w dniu - angielski" xfId="45"/>
-    <cellStyle name="Stan w dniu - polski" xfId="46"/>
-    <cellStyle name="Suma" xfId="47" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Tekst objaśnienia" xfId="48" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Tekst ostrzeżenia" xfId="49" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Tytuł" xfId="50" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Tytuł tablicy - polski" xfId="51"/>
-    <cellStyle name="Tytuł tablicy - polski 2" xfId="52"/>
-    <cellStyle name="Tytuł tablicy - polski 2 2" xfId="53"/>
-    <cellStyle name="Tytuł tablicy - polski 2 3" xfId="54"/>
-    <cellStyle name="Tytuł tablicy - polski 3" xfId="55"/>
-    <cellStyle name="Tytuł tablicy - polski 4" xfId="56"/>
-    <cellStyle name="Tytuł tablicy angielski" xfId="57"/>
-    <cellStyle name="Uwaga" xfId="58" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="1" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="2" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="3" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="4" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="5" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="6" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="boczek 1 - angielski" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="boczek 1 - polski" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="boczek 1 - polski 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="boczek 1 - polski 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="boczek 1 - polski 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="boczek 1 - polski 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="boczek 1 - polski 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="boczek 2 - angielski" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="boczek 2 - polski" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="boczek 2 - polski 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="boczek 2 - polski 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="boczek 2 - polski 2 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="boczek 2 - polski 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="boczek 3 - angielski" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="boczek 3 - polski" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="boczek 3 - polski 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="boczek 3 - polski 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Calculation" xfId="44" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="30" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="48" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Główka polska" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Główka polska 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="36" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="37" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="38" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hiperłącze 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Input" xfId="24" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="liczby w tablicy bez gwiazdki" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="liczby w tablicy bez gwiazdki 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="liczby w tablicy z gwiazdką" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="liczby w tablicy z gwiazdką 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Linked Cell" xfId="29" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normalny 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normalny 3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Note" xfId="58" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Notka - angielska" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Notka - polska" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Output" xfId="25" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Stan w dniu - angielski" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Stan w dniu - polski" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Title" xfId="50" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="47" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Tytuł tablicy - polski" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Tytuł tablicy - polski 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Tytuł tablicy - polski 2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Tytuł tablicy - polski 2 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Tytuł tablicy - polski 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Tytuł tablicy - polski 4" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Tytuł tablicy angielski" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Warning Text" xfId="49" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1083,9 +718,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1123,9 +758,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1160,7 +795,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1195,7 +830,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1368,224 +1003,260 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Arkusz2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="9.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="9"/>
   <cols>
-    <col min="1" max="1" width="25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1328125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A2" s="6">
+        <v>2201</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A3" s="6">
+        <v>2202</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A4" s="6">
+        <v>2203</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="A5" s="6">
+        <v>2204</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A6" s="6">
+        <v>2205</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A7" s="6">
+        <v>2206</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A8" s="6">
+        <v>2207</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A9" s="6">
+        <v>2208</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A10" s="6">
+        <v>2209</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A11" s="6">
+        <v>2210</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A12" s="6">
+        <v>2211</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A13" s="6">
+        <v>2212</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A14" s="6">
+        <v>2213</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A15" s="6">
+        <v>2214</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12" customHeight="1">
+      <c r="A16" s="6">
+        <v>2215</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A17" s="6">
+        <v>2216</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A18" s="6">
+        <v>2261</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A19" s="6">
+        <v>2262</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A20" s="6">
+        <v>2263</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
+      <c r="C20" s="8">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A21" s="6">
+        <v>2264</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="8">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="8">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="8">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="8">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="8">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="8">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="8">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="8">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="8">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="8">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="12" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="8">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="8">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="8">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="8">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="8">
+      <c r="C21" s="8">
         <v>2086</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B3:B5"/>
-  </mergeCells>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
+    <sortCondition ref="A1:A26"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="1.4763779527559056" right="1.4763779527559056" top="2.0472440944881889" bottom="1.811023622047244" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="34" orientation="landscape" r:id="rId1"/>
